--- a/Experiments/Measurements/Single Banner Horizontal/Straight path/Antenna_1/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Horizontal/Straight path/Antenna_1/Transformed_Coordinates.xlsx
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>189.5537863168404</v>
+        <v>189.5537863168403</v>
       </c>
       <c r="H12" t="n">
-        <v>62.24500830056807</v>
+        <v>62.24500830056801</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>125.0511553948117</v>
+        <v>125.0511553948116</v>
       </c>
       <c r="H13" t="n">
-        <v>82.83021842480035</v>
+        <v>82.83021842480031</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>87.4564895479477</v>
+        <v>87.45648954794733</v>
       </c>
       <c r="H14" t="n">
-        <v>82.23673965346208</v>
+        <v>82.23673965346188</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>68.00563418968842</v>
+        <v>68.00563418968805</v>
       </c>
       <c r="H15" t="n">
-        <v>70.62159595891318</v>
+        <v>70.62159595891295</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>106.537686109143</v>
+        <v>106.5376861091427</v>
       </c>
       <c r="H16" t="n">
-        <v>63.43321709836765</v>
+        <v>63.4332170983674</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>129.2688733002547</v>
+        <v>129.2688733002543</v>
       </c>
       <c r="H17" t="n">
-        <v>61.68521968701273</v>
+        <v>61.68521968701247</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>179.0767448067151</v>
+        <v>179.0767448067152</v>
       </c>
       <c r="H18" t="n">
-        <v>62.14230021625931</v>
+        <v>62.14230021625944</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>166.2548427683576</v>
+        <v>166.2548427683577</v>
       </c>
       <c r="H19" t="n">
-        <v>82.28422239015094</v>
+        <v>82.28422239015104</v>
       </c>
     </row>
     <row r="20">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>159.2392245100119</v>
+        <v>159.2392245100123</v>
       </c>
       <c r="H24" t="n">
-        <v>62.49839898606063</v>
+        <v>62.49839898606089</v>
       </c>
     </row>
     <row r="25">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>104.7132011365654</v>
+        <v>104.7132011365652</v>
       </c>
       <c r="H29" t="n">
-        <v>66.74798113855331</v>
+        <v>66.74798113855319</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>77.97404512839961</v>
+        <v>77.97404512839942</v>
       </c>
       <c r="H30" t="n">
-        <v>66.34743740668716</v>
+        <v>66.34743740668704</v>
       </c>
     </row>
     <row r="31">
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>104.1211152411572</v>
+        <v>104.1211152411569</v>
       </c>
       <c r="H32" t="n">
-        <v>68.55829664366274</v>
+        <v>68.55829664366257</v>
       </c>
     </row>
     <row r="33">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>124.8776948574121</v>
+        <v>124.8776948574118</v>
       </c>
       <c r="H34" t="n">
-        <v>62.96608232974068</v>
+        <v>62.96608232974048</v>
       </c>
     </row>
     <row r="35">
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>114.3374163808853</v>
+        <v>114.3374163808851</v>
       </c>
       <c r="H35" t="n">
-        <v>73.68164767278905</v>
+        <v>73.68164767278896</v>
       </c>
     </row>
     <row r="36">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>113.2699192679538</v>
+        <v>113.2699192679536</v>
       </c>
       <c r="H36" t="n">
-        <v>76.23900775418107</v>
+        <v>76.23900775418097</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>93.0714451297691</v>
+        <v>93.07144512976892</v>
       </c>
       <c r="H37" t="n">
-        <v>62.72620122652211</v>
+        <v>62.72620122652198</v>
       </c>
     </row>
     <row r="38">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>150.2988827404109</v>
+        <v>150.2988827404112</v>
       </c>
       <c r="H38" t="n">
-        <v>61.72449972866043</v>
+        <v>61.72449972866068</v>
       </c>
     </row>
     <row r="39">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>79.79971837723161</v>
+        <v>79.7997183772318</v>
       </c>
       <c r="H40" t="n">
-        <v>64.6385313738465</v>
+        <v>64.63853137384663</v>
       </c>
     </row>
     <row r="41">
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>118.3094724083772</v>
+        <v>118.3094724083776</v>
       </c>
       <c r="H45" t="n">
-        <v>73.07329790516368</v>
+        <v>73.07329790516391</v>
       </c>
     </row>
     <row r="46">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>143.56230576878</v>
+        <v>143.5623057687802</v>
       </c>
       <c r="H46" t="n">
-        <v>73.17033127566044</v>
+        <v>73.17033127566057</v>
       </c>
     </row>
     <row r="47">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>86.87246034614181</v>
+        <v>86.87246034614218</v>
       </c>
       <c r="H47" t="n">
-        <v>66.22493502304279</v>
+        <v>66.22493502304303</v>
       </c>
     </row>
     <row r="48">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>75.5055875342659</v>
+        <v>75.50558753426571</v>
       </c>
       <c r="H48" t="n">
-        <v>72.07852629092199</v>
+        <v>72.07852629092187</v>
       </c>
     </row>
     <row r="49">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>119.1661908748644</v>
+        <v>119.1661908748642</v>
       </c>
       <c r="H50" t="n">
-        <v>62.01336206579155</v>
+        <v>62.01336206579142</v>
       </c>
     </row>
     <row r="51">
